--- a/frontend/public/templates/prekes_sablonas.xlsx
+++ b/frontend/public/templates/prekes_sablonas.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>prekes_pavadinimas</t>
-  </si>
-  <si>
-    <t>prekes_kodas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>prekes_barkodas</t>
   </si>
@@ -29,6 +23,18 @@
   </si>
   <si>
     <t>P-001</t>
+  </si>
+  <si>
+    <t>prekes_pavadinimas*</t>
+  </si>
+  <si>
+    <t>prekes_kodas*</t>
+  </si>
+  <si>
+    <t>preke_paslauga_kodas</t>
+  </si>
+  <si>
+    <t>1 - jei preke; 2 - jei paslauga, 3 - jei kodas</t>
   </si>
 </sst>
 </file>
@@ -379,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -390,28 +396,35 @@
     <col min="1" max="1" width="33.3125" customWidth="1"/>
     <col min="2" max="2" width="17.83984375" customWidth="1"/>
     <col min="3" max="3" width="32.47265625" customWidth="1"/>
+    <col min="4" max="4" width="33.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>123456789</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
